--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N2">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O2">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P2">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q2">
-        <v>18.4900521645645</v>
+        <v>34.34168744378756</v>
       </c>
       <c r="R2">
-        <v>18.4900521645645</v>
+        <v>309.075186994088</v>
       </c>
       <c r="S2">
-        <v>0.001097190295422348</v>
+        <v>0.001555082507988501</v>
       </c>
       <c r="T2">
-        <v>0.001097190295422348</v>
+        <v>0.001555082507988501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N3">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O3">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P3">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q3">
-        <v>72.20034957051274</v>
+        <v>115.8901608297882</v>
       </c>
       <c r="R3">
-        <v>72.20034957051274</v>
+        <v>1043.011447468094</v>
       </c>
       <c r="S3">
-        <v>0.004284332038104529</v>
+        <v>0.005247813237173342</v>
       </c>
       <c r="T3">
-        <v>0.004284332038104529</v>
+        <v>0.005247813237173341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N4">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O4">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P4">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q4">
-        <v>5.3716100566283</v>
+        <v>17.540789423954</v>
       </c>
       <c r="R4">
-        <v>5.3716100566283</v>
+        <v>157.867104815586</v>
       </c>
       <c r="S4">
-        <v>0.0003187486099266219</v>
+        <v>0.0007942933746092046</v>
       </c>
       <c r="T4">
-        <v>0.0003187486099266219</v>
+        <v>0.0007942933746092046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.41901167122194</v>
+        <v>7.406534333333333</v>
       </c>
       <c r="N5">
-        <v>5.41901167122194</v>
+        <v>22.219603</v>
       </c>
       <c r="O5">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="P5">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="Q5">
-        <v>138.0208840642312</v>
+        <v>301.8413921101024</v>
       </c>
       <c r="R5">
-        <v>138.0208840642312</v>
+        <v>2716.572528990922</v>
       </c>
       <c r="S5">
-        <v>0.008190089092939794</v>
+        <v>0.01366817719209752</v>
       </c>
       <c r="T5">
-        <v>0.008190089092939794</v>
+        <v>0.01366817719209752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N6">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O6">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P6">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q6">
-        <v>1224.92714718883</v>
+        <v>1423.514546241671</v>
       </c>
       <c r="R6">
-        <v>1224.92714718883</v>
+        <v>12811.63091617504</v>
       </c>
       <c r="S6">
-        <v>0.0726865541823971</v>
+        <v>0.06446050661753573</v>
       </c>
       <c r="T6">
-        <v>0.0726865541823971</v>
+        <v>0.06446050661753573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N7">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O7">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P7">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q7">
-        <v>4783.121617955017</v>
+        <v>4803.821302535724</v>
       </c>
       <c r="R7">
-        <v>4783.121617955017</v>
+        <v>43234.39172282152</v>
       </c>
       <c r="S7">
-        <v>0.2838280051530992</v>
+        <v>0.2175297440262283</v>
       </c>
       <c r="T7">
-        <v>0.2838280051530992</v>
+        <v>0.2175297440262283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N8">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O8">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P8">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q8">
-        <v>355.857891795813</v>
+        <v>727.09207835032</v>
       </c>
       <c r="R8">
-        <v>355.857891795813</v>
+        <v>6543.82870515288</v>
       </c>
       <c r="S8">
-        <v>0.02111642638716256</v>
+        <v>0.0329246538799342</v>
       </c>
       <c r="T8">
-        <v>0.02111642638716256</v>
+        <v>0.0329246538799342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.41901167122194</v>
+        <v>7.406534333333333</v>
       </c>
       <c r="N9">
-        <v>5.41901167122194</v>
+        <v>22.219603</v>
       </c>
       <c r="O9">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="P9">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="Q9">
-        <v>9143.593877646641</v>
+        <v>12511.77924875953</v>
       </c>
       <c r="R9">
-        <v>9143.593877646641</v>
+        <v>112606.0132388357</v>
       </c>
       <c r="S9">
-        <v>0.5425762122544766</v>
+        <v>0.5665664823665856</v>
       </c>
       <c r="T9">
-        <v>0.5425762122544766</v>
+        <v>0.5665664823665856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N10">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O10">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P10">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q10">
-        <v>26.41173638723787</v>
+        <v>85.08058289449822</v>
       </c>
       <c r="R10">
-        <v>26.41173638723787</v>
+        <v>765.725246050484</v>
       </c>
       <c r="S10">
-        <v>0.001567259009948459</v>
+        <v>0.003852673997026736</v>
       </c>
       <c r="T10">
-        <v>0.001567259009948459</v>
+        <v>0.003852673997026736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N11">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O11">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P11">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q11">
-        <v>103.1331108723089</v>
+        <v>287.1146751677519</v>
       </c>
       <c r="R11">
-        <v>103.1331108723089</v>
+        <v>2584.032076509767</v>
       </c>
       <c r="S11">
-        <v>0.00611986636807196</v>
+        <v>0.01300131246814843</v>
       </c>
       <c r="T11">
-        <v>0.00611986636807196</v>
+        <v>0.01300131246814843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N12">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O12">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P12">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q12">
-        <v>7.672966389061789</v>
+        <v>43.456821714497</v>
       </c>
       <c r="R12">
-        <v>7.672966389061789</v>
+        <v>391.111395430473</v>
       </c>
       <c r="S12">
-        <v>0.0004553099247234461</v>
+        <v>0.001967839915018919</v>
       </c>
       <c r="T12">
-        <v>0.0004553099247234461</v>
+        <v>0.001967839915018919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.41901167122194</v>
+        <v>7.406534333333333</v>
       </c>
       <c r="N13">
-        <v>5.41901167122194</v>
+        <v>22.219603</v>
       </c>
       <c r="O13">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="P13">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="Q13">
-        <v>197.1531055398652</v>
+        <v>747.8037188606468</v>
       </c>
       <c r="R13">
-        <v>197.1531055398652</v>
+        <v>6730.233469745821</v>
       </c>
       <c r="S13">
-        <v>0.01169896505350465</v>
+        <v>0.03386253178480057</v>
       </c>
       <c r="T13">
-        <v>0.01169896505350465</v>
+        <v>0.03386253178480057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N14">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O14">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P14">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q14">
-        <v>61.31382197909782</v>
+        <v>71.97481673721157</v>
       </c>
       <c r="R14">
-        <v>61.31382197909782</v>
+        <v>647.773350634904</v>
       </c>
       <c r="S14">
-        <v>0.003638331025352416</v>
+        <v>0.003259210215191781</v>
       </c>
       <c r="T14">
-        <v>0.003638331025352416</v>
+        <v>0.003259210215191781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N15">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O15">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P15">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q15">
-        <v>239.4195181817281</v>
+        <v>242.8876886444003</v>
       </c>
       <c r="R15">
-        <v>239.4195181817281</v>
+        <v>2185.989197799602</v>
       </c>
       <c r="S15">
-        <v>0.01420703249215921</v>
+        <v>0.01099859745200123</v>
       </c>
       <c r="T15">
-        <v>0.01420703249215921</v>
+        <v>0.01099859745200122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N16">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O16">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P16">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q16">
-        <v>17.81249397362079</v>
+        <v>36.762756817982</v>
       </c>
       <c r="R16">
-        <v>17.81249397362079</v>
+        <v>330.864811361838</v>
       </c>
       <c r="S16">
-        <v>0.001056984336830621</v>
+        <v>0.001664714937687804</v>
       </c>
       <c r="T16">
-        <v>0.001056984336830621</v>
+        <v>0.001664714937687804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.41901167122194</v>
+        <v>7.406534333333333</v>
       </c>
       <c r="N17">
-        <v>5.41901167122194</v>
+        <v>22.219603</v>
       </c>
       <c r="O17">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="P17">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="Q17">
-        <v>457.6832904306355</v>
+        <v>632.6124456286585</v>
       </c>
       <c r="R17">
-        <v>457.6832904306355</v>
+        <v>5693.512010657926</v>
       </c>
       <c r="S17">
-        <v>0.02715869377588038</v>
+        <v>0.02864636602797216</v>
       </c>
       <c r="T17">
-        <v>0.02715869377588038</v>
+        <v>0.02864636602797216</v>
       </c>
     </row>
   </sheetData>
